--- a/ComponentBase.xlsx
+++ b/ComponentBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898416B2-E753-439E-874D-FE590703CE26}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCC1D95-C28E-4C27-97B1-2541A723F494}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t>C0603</t>
   </si>
@@ -279,13 +279,21 @@
   </si>
   <si>
     <t>LL4151</t>
+  </si>
+  <si>
+    <t>Optocoupler</t>
+  </si>
+  <si>
+    <t>LedDiode</t>
+  </si>
+  <si>
+    <t>Not install</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,17 +605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +919,7 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +927,7 @@
         <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1007,7 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,7 +1050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1060,6 +1068,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1315,15 +1324,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="n">
-        <v>16.0</v>
+      <c r="C23">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
